--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841840_GBR_all_unit_value.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841840_GBR_all_unit_value.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Date</t>
+    <t>TUR_GBR_841840_UV</t>
   </si>
   <si>
-    <t>TUR_GBR_841840_UV</t>
+    <t>Date</t>
   </si>
   <si>
     <t>TUR_GBR_841840_UV-1</t>
@@ -423,18 +423,18 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
+        <v>3.72</v>
+      </c>
+      <c r="B2">
         <v>200404</v>
-      </c>
-      <c r="B2">
-        <v>3.72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
+        <v>3.8</v>
+      </c>
+      <c r="B3">
         <v>200405</v>
-      </c>
-      <c r="B3">
-        <v>3.8</v>
       </c>
       <c r="C3">
         <v>3.72</v>
@@ -442,10 +442,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
+        <v>3.89</v>
+      </c>
+      <c r="B4">
         <v>200406</v>
-      </c>
-      <c r="B4">
-        <v>3.89</v>
       </c>
       <c r="C4">
         <v>3.8</v>
@@ -456,10 +456,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
+        <v>3.85</v>
+      </c>
+      <c r="B5">
         <v>200407</v>
-      </c>
-      <c r="B5">
-        <v>3.85</v>
       </c>
       <c r="C5">
         <v>3.89</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
+        <v>3.72</v>
+      </c>
+      <c r="B6">
         <v>200408</v>
-      </c>
-      <c r="B6">
-        <v>3.72</v>
       </c>
       <c r="C6">
         <v>3.85</v>
@@ -490,10 +490,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
+        <v>3.64</v>
+      </c>
+      <c r="B7">
         <v>200409</v>
-      </c>
-      <c r="B7">
-        <v>3.64</v>
       </c>
       <c r="C7">
         <v>3.72</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
+        <v>4.25</v>
+      </c>
+      <c r="B8">
         <v>200410</v>
-      </c>
-      <c r="B8">
-        <v>4.25</v>
       </c>
       <c r="C8">
         <v>3.64</v>
@@ -527,10 +527,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
+        <v>4.17</v>
+      </c>
+      <c r="B9">
         <v>200411</v>
-      </c>
-      <c r="B9">
-        <v>4.17</v>
       </c>
       <c r="C9">
         <v>4.25</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
+        <v>4.55</v>
+      </c>
+      <c r="B10">
         <v>200412</v>
-      </c>
-      <c r="B10">
-        <v>4.55</v>
       </c>
       <c r="C10">
         <v>4.17</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
+        <v>3.86</v>
+      </c>
+      <c r="B11">
         <v>200501</v>
-      </c>
-      <c r="B11">
-        <v>3.86</v>
       </c>
       <c r="C11">
         <v>4.55</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
+        <v>4.2</v>
+      </c>
+      <c r="B12">
         <v>200502</v>
-      </c>
-      <c r="B12">
-        <v>4.2</v>
       </c>
       <c r="C12">
         <v>3.86</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
+        <v>4.52</v>
+      </c>
+      <c r="B13">
         <v>200503</v>
-      </c>
-      <c r="B13">
-        <v>4.52</v>
       </c>
       <c r="C13">
         <v>4.2</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
+        <v>5.13</v>
+      </c>
+      <c r="B14">
         <v>200504</v>
-      </c>
-      <c r="B14">
-        <v>5.13</v>
       </c>
       <c r="C14">
         <v>4.52</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
+        <v>4.66</v>
+      </c>
+      <c r="B15">
         <v>200505</v>
-      </c>
-      <c r="B15">
-        <v>4.66</v>
       </c>
       <c r="C15">
         <v>5.13</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
+        <v>4.43</v>
+      </c>
+      <c r="B16">
         <v>200506</v>
-      </c>
-      <c r="B16">
-        <v>4.43</v>
       </c>
       <c r="C16">
         <v>4.66</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
+        <v>4.64</v>
+      </c>
+      <c r="B17">
         <v>200507</v>
-      </c>
-      <c r="B17">
-        <v>4.64</v>
       </c>
       <c r="C17">
         <v>4.43</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
+        <v>4.26</v>
+      </c>
+      <c r="B18">
         <v>200508</v>
-      </c>
-      <c r="B18">
-        <v>4.26</v>
       </c>
       <c r="C18">
         <v>4.64</v>
@@ -742,10 +742,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
+        <v>4.44</v>
+      </c>
+      <c r="B19">
         <v>200509</v>
-      </c>
-      <c r="B19">
-        <v>4.44</v>
       </c>
       <c r="C19">
         <v>4.26</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
+        <v>4.33</v>
+      </c>
+      <c r="B20">
         <v>200510</v>
-      </c>
-      <c r="B20">
-        <v>4.33</v>
       </c>
       <c r="C20">
         <v>4.44</v>
@@ -788,10 +788,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
+        <v>4.54</v>
+      </c>
+      <c r="B21">
         <v>200511</v>
-      </c>
-      <c r="B21">
-        <v>4.54</v>
       </c>
       <c r="C21">
         <v>4.33</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
+        <v>4.03</v>
+      </c>
+      <c r="B22">
         <v>200512</v>
-      </c>
-      <c r="B22">
-        <v>4.03</v>
       </c>
       <c r="C22">
         <v>4.54</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
+        <v>3.98</v>
+      </c>
+      <c r="B23">
         <v>200601</v>
-      </c>
-      <c r="B23">
-        <v>3.98</v>
       </c>
       <c r="C23">
         <v>4.03</v>
@@ -857,10 +857,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
+        <v>4.11</v>
+      </c>
+      <c r="B24">
         <v>200602</v>
-      </c>
-      <c r="B24">
-        <v>4.11</v>
       </c>
       <c r="C24">
         <v>3.98</v>
@@ -880,10 +880,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
+        <v>4.6</v>
+      </c>
+      <c r="B25">
         <v>200603</v>
-      </c>
-      <c r="B25">
-        <v>4.6</v>
       </c>
       <c r="C25">
         <v>4.11</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
+        <v>4.1</v>
+      </c>
+      <c r="B26">
         <v>200604</v>
-      </c>
-      <c r="B26">
-        <v>4.1</v>
       </c>
       <c r="C26">
         <v>4.6</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
+        <v>3.82</v>
+      </c>
+      <c r="B27">
         <v>200605</v>
-      </c>
-      <c r="B27">
-        <v>3.82</v>
       </c>
       <c r="C27">
         <v>4.1</v>
@@ -949,10 +949,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
+        <v>4.33</v>
+      </c>
+      <c r="B28">
         <v>200606</v>
-      </c>
-      <c r="B28">
-        <v>4.33</v>
       </c>
       <c r="C28">
         <v>3.82</v>
@@ -972,10 +972,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
+        <v>4.68</v>
+      </c>
+      <c r="B29">
         <v>200607</v>
-      </c>
-      <c r="B29">
-        <v>4.68</v>
       </c>
       <c r="C29">
         <v>4.33</v>
@@ -995,10 +995,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
+        <v>4.3</v>
+      </c>
+      <c r="B30">
         <v>200608</v>
-      </c>
-      <c r="B30">
-        <v>4.3</v>
       </c>
       <c r="C30">
         <v>4.68</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
+        <v>4.93</v>
+      </c>
+      <c r="B31">
         <v>200609</v>
-      </c>
-      <c r="B31">
-        <v>4.93</v>
       </c>
       <c r="C31">
         <v>4.3</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
+        <v>4.36</v>
+      </c>
+      <c r="B32">
         <v>200610</v>
-      </c>
-      <c r="B32">
-        <v>4.36</v>
       </c>
       <c r="C32">
         <v>4.93</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
+        <v>4.4</v>
+      </c>
+      <c r="B33">
         <v>200611</v>
-      </c>
-      <c r="B33">
-        <v>4.4</v>
       </c>
       <c r="C33">
         <v>4.36</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
+        <v>4.18</v>
+      </c>
+      <c r="B34">
         <v>200612</v>
-      </c>
-      <c r="B34">
-        <v>4.18</v>
       </c>
       <c r="C34">
         <v>4.4</v>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
+        <v>4.62</v>
+      </c>
+      <c r="B35">
         <v>200701</v>
-      </c>
-      <c r="B35">
-        <v>4.62</v>
       </c>
       <c r="C35">
         <v>4.18</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
+        <v>4.14</v>
+      </c>
+      <c r="B36">
         <v>200702</v>
-      </c>
-      <c r="B36">
-        <v>4.14</v>
       </c>
       <c r="C36">
         <v>4.62</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
+        <v>4.21</v>
+      </c>
+      <c r="B37">
         <v>200703</v>
-      </c>
-      <c r="B37">
-        <v>4.21</v>
       </c>
       <c r="C37">
         <v>4.14</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
+        <v>4.14</v>
+      </c>
+      <c r="B38">
         <v>200704</v>
-      </c>
-      <c r="B38">
-        <v>4.14</v>
       </c>
       <c r="C38">
         <v>4.21</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
+        <v>4.19</v>
+      </c>
+      <c r="B39">
         <v>200705</v>
-      </c>
-      <c r="B39">
-        <v>4.19</v>
       </c>
       <c r="C39">
         <v>4.14</v>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
+        <v>4.69</v>
+      </c>
+      <c r="B40">
         <v>200706</v>
-      </c>
-      <c r="B40">
-        <v>4.69</v>
       </c>
       <c r="C40">
         <v>4.19</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
+        <v>4.54</v>
+      </c>
+      <c r="B41">
         <v>200707</v>
-      </c>
-      <c r="B41">
-        <v>4.54</v>
       </c>
       <c r="C41">
         <v>4.69</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
+        <v>4.42</v>
+      </c>
+      <c r="B42">
         <v>200708</v>
-      </c>
-      <c r="B42">
-        <v>4.42</v>
       </c>
       <c r="C42">
         <v>4.54</v>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
+        <v>4.59</v>
+      </c>
+      <c r="B43">
         <v>200709</v>
-      </c>
-      <c r="B43">
-        <v>4.59</v>
       </c>
       <c r="C43">
         <v>4.42</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
+        <v>4.74</v>
+      </c>
+      <c r="B44">
         <v>200710</v>
-      </c>
-      <c r="B44">
-        <v>4.74</v>
       </c>
       <c r="C44">
         <v>4.59</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
+        <v>5.28</v>
+      </c>
+      <c r="B45">
         <v>200711</v>
-      </c>
-      <c r="B45">
-        <v>5.28</v>
       </c>
       <c r="C45">
         <v>4.74</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
+        <v>5.15</v>
+      </c>
+      <c r="B46">
         <v>200712</v>
-      </c>
-      <c r="B46">
-        <v>5.15</v>
       </c>
       <c r="C46">
         <v>5.28</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
+        <v>4.64</v>
+      </c>
+      <c r="B47">
         <v>200801</v>
-      </c>
-      <c r="B47">
-        <v>4.64</v>
       </c>
       <c r="C47">
         <v>5.15</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
+        <v>4.55</v>
+      </c>
+      <c r="B48">
         <v>200802</v>
-      </c>
-      <c r="B48">
-        <v>4.55</v>
       </c>
       <c r="C48">
         <v>4.64</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
+        <v>4.45</v>
+      </c>
+      <c r="B49">
         <v>200803</v>
-      </c>
-      <c r="B49">
-        <v>4.45</v>
       </c>
       <c r="C49">
         <v>4.55</v>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
+        <v>4.67</v>
+      </c>
+      <c r="B50">
         <v>200804</v>
-      </c>
-      <c r="B50">
-        <v>4.67</v>
       </c>
       <c r="C50">
         <v>4.45</v>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
+        <v>4.76</v>
+      </c>
+      <c r="B51">
         <v>200805</v>
-      </c>
-      <c r="B51">
-        <v>4.76</v>
       </c>
       <c r="C51">
         <v>4.67</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
+        <v>4.55</v>
+      </c>
+      <c r="B52">
         <v>200806</v>
-      </c>
-      <c r="B52">
-        <v>4.55</v>
       </c>
       <c r="C52">
         <v>4.76</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
+        <v>4.44</v>
+      </c>
+      <c r="B53">
         <v>200807</v>
-      </c>
-      <c r="B53">
-        <v>4.44</v>
       </c>
       <c r="C53">
         <v>4.55</v>
@@ -1547,10 +1547,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
+        <v>4.56</v>
+      </c>
+      <c r="B54">
         <v>200808</v>
-      </c>
-      <c r="B54">
-        <v>4.56</v>
       </c>
       <c r="C54">
         <v>4.44</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
+        <v>4.29</v>
+      </c>
+      <c r="B55">
         <v>200809</v>
-      </c>
-      <c r="B55">
-        <v>4.29</v>
       </c>
       <c r="C55">
         <v>4.56</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
+        <v>4.13</v>
+      </c>
+      <c r="B56">
         <v>200810</v>
-      </c>
-      <c r="B56">
-        <v>4.13</v>
       </c>
       <c r="C56">
         <v>4.29</v>
@@ -1616,10 +1616,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
+        <v>3.51</v>
+      </c>
+      <c r="B57">
         <v>200811</v>
-      </c>
-      <c r="B57">
-        <v>3.51</v>
       </c>
       <c r="C57">
         <v>4.13</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
+        <v>3.66</v>
+      </c>
+      <c r="B58">
         <v>200812</v>
-      </c>
-      <c r="B58">
-        <v>3.66</v>
       </c>
       <c r="C58">
         <v>3.51</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
+        <v>3.56</v>
+      </c>
+      <c r="B59">
         <v>200901</v>
-      </c>
-      <c r="B59">
-        <v>3.56</v>
       </c>
       <c r="C59">
         <v>3.66</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
+        <v>3.69</v>
+      </c>
+      <c r="B60">
         <v>200902</v>
-      </c>
-      <c r="B60">
-        <v>3.69</v>
       </c>
       <c r="C60">
         <v>3.56</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
+        <v>3.57</v>
+      </c>
+      <c r="B61">
         <v>200903</v>
-      </c>
-      <c r="B61">
-        <v>3.57</v>
       </c>
       <c r="C61">
         <v>3.69</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
+        <v>3.56</v>
+      </c>
+      <c r="B62">
         <v>200904</v>
-      </c>
-      <c r="B62">
-        <v>3.56</v>
       </c>
       <c r="C62">
         <v>3.57</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
+        <v>3.68</v>
+      </c>
+      <c r="B63">
         <v>200905</v>
-      </c>
-      <c r="B63">
-        <v>3.68</v>
       </c>
       <c r="C63">
         <v>3.56</v>
@@ -1777,10 +1777,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
+        <v>3.77</v>
+      </c>
+      <c r="B64">
         <v>200906</v>
-      </c>
-      <c r="B64">
-        <v>3.77</v>
       </c>
       <c r="C64">
         <v>3.68</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
+        <v>3.68</v>
+      </c>
+      <c r="B65">
         <v>200907</v>
-      </c>
-      <c r="B65">
-        <v>3.68</v>
       </c>
       <c r="C65">
         <v>3.77</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
+        <v>3.9</v>
+      </c>
+      <c r="B66">
         <v>200908</v>
-      </c>
-      <c r="B66">
-        <v>3.9</v>
       </c>
       <c r="C66">
         <v>3.68</v>
@@ -1846,10 +1846,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
+        <v>4.45</v>
+      </c>
+      <c r="B67">
         <v>200909</v>
-      </c>
-      <c r="B67">
-        <v>4.45</v>
       </c>
       <c r="C67">
         <v>3.9</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
+        <v>4.29</v>
+      </c>
+      <c r="B68">
         <v>200910</v>
-      </c>
-      <c r="B68">
-        <v>4.29</v>
       </c>
       <c r="C68">
         <v>4.45</v>
@@ -1892,10 +1892,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
+        <v>4.29</v>
+      </c>
+      <c r="B69">
         <v>200911</v>
-      </c>
-      <c r="B69">
-        <v>4.29</v>
       </c>
       <c r="C69">
         <v>4.29</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
+        <v>3.76</v>
+      </c>
+      <c r="B70">
         <v>200912</v>
-      </c>
-      <c r="B70">
-        <v>3.76</v>
       </c>
       <c r="C70">
         <v>4.29</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
+        <v>4.11</v>
+      </c>
+      <c r="B71">
         <v>201001</v>
-      </c>
-      <c r="B71">
-        <v>4.11</v>
       </c>
       <c r="C71">
         <v>3.76</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
+        <v>3.97</v>
+      </c>
+      <c r="B72">
         <v>201002</v>
-      </c>
-      <c r="B72">
-        <v>3.97</v>
       </c>
       <c r="C72">
         <v>4.11</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
+        <v>4.22</v>
+      </c>
+      <c r="B73">
         <v>201003</v>
-      </c>
-      <c r="B73">
-        <v>4.22</v>
       </c>
       <c r="C73">
         <v>3.97</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
+        <v>3.81</v>
+      </c>
+      <c r="B74">
         <v>201004</v>
-      </c>
-      <c r="B74">
-        <v>3.81</v>
       </c>
       <c r="C74">
         <v>4.22</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
+        <v>3.96</v>
+      </c>
+      <c r="B75">
         <v>201005</v>
-      </c>
-      <c r="B75">
-        <v>3.96</v>
       </c>
       <c r="C75">
         <v>3.81</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
+        <v>3.98</v>
+      </c>
+      <c r="B76">
         <v>201006</v>
-      </c>
-      <c r="B76">
-        <v>3.98</v>
       </c>
       <c r="C76">
         <v>3.96</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
+        <v>4.04</v>
+      </c>
+      <c r="B77">
         <v>201007</v>
-      </c>
-      <c r="B77">
-        <v>4.04</v>
       </c>
       <c r="C77">
         <v>3.98</v>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
+        <v>4.06</v>
+      </c>
+      <c r="B78">
         <v>201008</v>
-      </c>
-      <c r="B78">
-        <v>4.06</v>
       </c>
       <c r="C78">
         <v>4.04</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
+        <v>4.49</v>
+      </c>
+      <c r="B79">
         <v>201009</v>
-      </c>
-      <c r="B79">
-        <v>4.49</v>
       </c>
       <c r="C79">
         <v>4.06</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
+        <v>4.18</v>
+      </c>
+      <c r="B80">
         <v>201010</v>
-      </c>
-      <c r="B80">
-        <v>4.18</v>
       </c>
       <c r="C80">
         <v>4.49</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
+        <v>4.25</v>
+      </c>
+      <c r="B81">
         <v>201011</v>
-      </c>
-      <c r="B81">
-        <v>4.25</v>
       </c>
       <c r="C81">
         <v>4.18</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
+        <v>3.89</v>
+      </c>
+      <c r="B82">
         <v>201012</v>
-      </c>
-      <c r="B82">
-        <v>3.89</v>
       </c>
       <c r="C82">
         <v>4.25</v>
@@ -2214,10 +2214,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
+        <v>4.4</v>
+      </c>
+      <c r="B83">
         <v>201101</v>
-      </c>
-      <c r="B83">
-        <v>4.4</v>
       </c>
       <c r="C83">
         <v>3.89</v>
@@ -2237,10 +2237,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
+        <v>4.23</v>
+      </c>
+      <c r="B84">
         <v>201102</v>
-      </c>
-      <c r="B84">
-        <v>4.23</v>
       </c>
       <c r="C84">
         <v>4.4</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
+        <v>4.51</v>
+      </c>
+      <c r="B85">
         <v>201103</v>
-      </c>
-      <c r="B85">
-        <v>4.51</v>
       </c>
       <c r="C85">
         <v>4.23</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
+        <v>4.54</v>
+      </c>
+      <c r="B86">
         <v>201104</v>
-      </c>
-      <c r="B86">
-        <v>4.54</v>
       </c>
       <c r="C86">
         <v>4.51</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
+        <v>4.34</v>
+      </c>
+      <c r="B87">
         <v>201105</v>
-      </c>
-      <c r="B87">
-        <v>4.34</v>
       </c>
       <c r="C87">
         <v>4.54</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
+        <v>4.48</v>
+      </c>
+      <c r="B88">
         <v>201106</v>
-      </c>
-      <c r="B88">
-        <v>4.48</v>
       </c>
       <c r="C88">
         <v>4.34</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
+        <v>4.61</v>
+      </c>
+      <c r="B89">
         <v>201107</v>
-      </c>
-      <c r="B89">
-        <v>4.61</v>
       </c>
       <c r="C89">
         <v>4.48</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
+        <v>4.3</v>
+      </c>
+      <c r="B90">
         <v>201108</v>
-      </c>
-      <c r="B90">
-        <v>4.3</v>
       </c>
       <c r="C90">
         <v>4.61</v>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
+        <v>3.76</v>
+      </c>
+      <c r="B91">
         <v>201109</v>
-      </c>
-      <c r="B91">
-        <v>3.76</v>
       </c>
       <c r="C91">
         <v>4.3</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
+        <v>3.96</v>
+      </c>
+      <c r="B92">
         <v>201110</v>
-      </c>
-      <c r="B92">
-        <v>3.96</v>
       </c>
       <c r="C92">
         <v>3.76</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
+        <v>3.59</v>
+      </c>
+      <c r="B93">
         <v>201111</v>
-      </c>
-      <c r="B93">
-        <v>3.59</v>
       </c>
       <c r="C93">
         <v>3.96</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
+        <v>3.63</v>
+      </c>
+      <c r="B94">
         <v>201112</v>
-      </c>
-      <c r="B94">
-        <v>3.63</v>
       </c>
       <c r="C94">
         <v>3.59</v>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
+        <v>4.18</v>
+      </c>
+      <c r="B95">
         <v>201201</v>
-      </c>
-      <c r="B95">
-        <v>4.18</v>
       </c>
       <c r="C95">
         <v>3.63</v>
@@ -2513,10 +2513,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
+        <v>4.14</v>
+      </c>
+      <c r="B96">
         <v>201202</v>
-      </c>
-      <c r="B96">
-        <v>4.14</v>
       </c>
       <c r="C96">
         <v>4.18</v>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
+        <v>4.28</v>
+      </c>
+      <c r="B97">
         <v>201203</v>
-      </c>
-      <c r="B97">
-        <v>4.28</v>
       </c>
       <c r="C97">
         <v>4.14</v>
@@ -2559,10 +2559,10 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
+        <v>3.95</v>
+      </c>
+      <c r="B98">
         <v>201204</v>
-      </c>
-      <c r="B98">
-        <v>3.95</v>
       </c>
       <c r="C98">
         <v>4.28</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
+        <v>4.02</v>
+      </c>
+      <c r="B99">
         <v>201205</v>
-      </c>
-      <c r="B99">
-        <v>4.02</v>
       </c>
       <c r="C99">
         <v>3.95</v>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
+        <v>4.12</v>
+      </c>
+      <c r="B100">
         <v>201206</v>
-      </c>
-      <c r="B100">
-        <v>4.12</v>
       </c>
       <c r="C100">
         <v>4.02</v>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
+        <v>4.18</v>
+      </c>
+      <c r="B101">
         <v>201207</v>
-      </c>
-      <c r="B101">
-        <v>4.18</v>
       </c>
       <c r="C101">
         <v>4.12</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
+        <v>4.3</v>
+      </c>
+      <c r="B102">
         <v>201208</v>
-      </c>
-      <c r="B102">
-        <v>4.3</v>
       </c>
       <c r="C102">
         <v>4.18</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
+        <v>4.48</v>
+      </c>
+      <c r="B103">
         <v>201209</v>
-      </c>
-      <c r="B103">
-        <v>4.48</v>
       </c>
       <c r="C103">
         <v>4.3</v>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
+        <v>4.23</v>
+      </c>
+      <c r="B104">
         <v>201210</v>
-      </c>
-      <c r="B104">
-        <v>4.23</v>
       </c>
       <c r="C104">
         <v>4.48</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
+        <v>4.34</v>
+      </c>
+      <c r="B105">
         <v>201211</v>
-      </c>
-      <c r="B105">
-        <v>4.34</v>
       </c>
       <c r="C105">
         <v>4.23</v>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
+        <v>4.11</v>
+      </c>
+      <c r="B106">
         <v>201212</v>
-      </c>
-      <c r="B106">
-        <v>4.11</v>
       </c>
       <c r="C106">
         <v>4.34</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
+        <v>4.31</v>
+      </c>
+      <c r="B107">
         <v>201301</v>
-      </c>
-      <c r="B107">
-        <v>4.31</v>
       </c>
       <c r="C107">
         <v>4.11</v>
@@ -2789,10 +2789,10 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
+        <v>4.12</v>
+      </c>
+      <c r="B108">
         <v>201302</v>
-      </c>
-      <c r="B108">
-        <v>4.12</v>
       </c>
       <c r="C108">
         <v>4.31</v>
@@ -2812,10 +2812,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
+        <v>4.06</v>
+      </c>
+      <c r="B109">
         <v>201303</v>
-      </c>
-      <c r="B109">
-        <v>4.06</v>
       </c>
       <c r="C109">
         <v>4.12</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
+        <v>4.41</v>
+      </c>
+      <c r="B110">
         <v>201304</v>
-      </c>
-      <c r="B110">
-        <v>4.41</v>
       </c>
       <c r="C110">
         <v>4.06</v>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
+        <v>4.21</v>
+      </c>
+      <c r="B111">
         <v>201305</v>
-      </c>
-      <c r="B111">
-        <v>4.21</v>
       </c>
       <c r="C111">
         <v>4.41</v>
@@ -2881,10 +2881,10 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
+        <v>4.16</v>
+      </c>
+      <c r="B112">
         <v>201306</v>
-      </c>
-      <c r="B112">
-        <v>4.16</v>
       </c>
       <c r="C112">
         <v>4.21</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
+        <v>4.16</v>
+      </c>
+      <c r="B113">
         <v>201307</v>
-      </c>
-      <c r="B113">
-        <v>4.16</v>
       </c>
       <c r="C113">
         <v>4.16</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
+        <v>4.16</v>
+      </c>
+      <c r="B114">
         <v>201308</v>
-      </c>
-      <c r="B114">
-        <v>4.16</v>
       </c>
       <c r="C114">
         <v>4.16</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
+        <v>3.98</v>
+      </c>
+      <c r="B115">
         <v>201309</v>
-      </c>
-      <c r="B115">
-        <v>3.98</v>
       </c>
       <c r="C115">
         <v>4.16</v>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
+        <v>4.18</v>
+      </c>
+      <c r="B116">
         <v>201310</v>
-      </c>
-      <c r="B116">
-        <v>4.18</v>
       </c>
       <c r="C116">
         <v>3.98</v>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
+        <v>4.18</v>
+      </c>
+      <c r="B117">
         <v>201311</v>
-      </c>
-      <c r="B117">
-        <v>4.18</v>
       </c>
       <c r="C117">
         <v>4.18</v>
@@ -3019,10 +3019,10 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
+        <v>4.04</v>
+      </c>
+      <c r="B118">
         <v>201312</v>
-      </c>
-      <c r="B118">
-        <v>4.04</v>
       </c>
       <c r="C118">
         <v>4.18</v>
@@ -3042,10 +3042,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
+        <v>4.11</v>
+      </c>
+      <c r="B119">
         <v>201401</v>
-      </c>
-      <c r="B119">
-        <v>4.11</v>
       </c>
       <c r="C119">
         <v>4.04</v>
@@ -3065,10 +3065,10 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
+        <v>4.09</v>
+      </c>
+      <c r="B120">
         <v>201402</v>
-      </c>
-      <c r="B120">
-        <v>4.09</v>
       </c>
       <c r="C120">
         <v>4.11</v>
@@ -3088,10 +3088,10 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
+        <v>4.71</v>
+      </c>
+      <c r="B121">
         <v>201403</v>
-      </c>
-      <c r="B121">
-        <v>4.71</v>
       </c>
       <c r="C121">
         <v>4.09</v>
@@ -3111,10 +3111,10 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
+        <v>4.38</v>
+      </c>
+      <c r="B122">
         <v>201404</v>
-      </c>
-      <c r="B122">
-        <v>4.38</v>
       </c>
       <c r="C122">
         <v>4.71</v>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
+        <v>4.45</v>
+      </c>
+      <c r="B123">
         <v>201405</v>
-      </c>
-      <c r="B123">
-        <v>4.45</v>
       </c>
       <c r="C123">
         <v>4.38</v>
@@ -3157,10 +3157,10 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
+        <v>4.23</v>
+      </c>
+      <c r="B124">
         <v>201406</v>
-      </c>
-      <c r="B124">
-        <v>4.23</v>
       </c>
       <c r="C124">
         <v>4.45</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
+        <v>4.43</v>
+      </c>
+      <c r="B125">
         <v>201407</v>
-      </c>
-      <c r="B125">
-        <v>4.43</v>
       </c>
       <c r="C125">
         <v>4.23</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
+        <v>4.31</v>
+      </c>
+      <c r="B126">
         <v>201408</v>
-      </c>
-      <c r="B126">
-        <v>4.31</v>
       </c>
       <c r="C126">
         <v>4.43</v>
@@ -3226,10 +3226,10 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
+        <v>4.32</v>
+      </c>
+      <c r="B127">
         <v>201409</v>
-      </c>
-      <c r="B127">
-        <v>4.32</v>
       </c>
       <c r="C127">
         <v>4.31</v>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
+        <v>4.27</v>
+      </c>
+      <c r="B128">
         <v>201410</v>
-      </c>
-      <c r="B128">
-        <v>4.27</v>
       </c>
       <c r="C128">
         <v>4.32</v>
@@ -3272,10 +3272,10 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
+        <v>3.98</v>
+      </c>
+      <c r="B129">
         <v>201411</v>
-      </c>
-      <c r="B129">
-        <v>3.98</v>
       </c>
       <c r="C129">
         <v>4.27</v>
@@ -3295,10 +3295,10 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
+        <v>3.9</v>
+      </c>
+      <c r="B130">
         <v>201412</v>
-      </c>
-      <c r="B130">
-        <v>3.9</v>
       </c>
       <c r="C130">
         <v>3.98</v>
@@ -3318,10 +3318,10 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
+        <v>3.94</v>
+      </c>
+      <c r="B131">
         <v>201501</v>
-      </c>
-      <c r="B131">
-        <v>3.94</v>
       </c>
       <c r="C131">
         <v>3.9</v>
@@ -3341,10 +3341,10 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
+        <v>3.74</v>
+      </c>
+      <c r="B132">
         <v>201502</v>
-      </c>
-      <c r="B132">
-        <v>3.74</v>
       </c>
       <c r="C132">
         <v>3.94</v>
@@ -3364,10 +3364,10 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
+        <v>3.53</v>
+      </c>
+      <c r="B133">
         <v>201503</v>
-      </c>
-      <c r="B133">
-        <v>3.53</v>
       </c>
       <c r="C133">
         <v>3.74</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
+        <v>3.35</v>
+      </c>
+      <c r="B134">
         <v>201504</v>
-      </c>
-      <c r="B134">
-        <v>3.35</v>
       </c>
       <c r="C134">
         <v>3.53</v>
@@ -3410,10 +3410,10 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
+        <v>3.59</v>
+      </c>
+      <c r="B135">
         <v>201505</v>
-      </c>
-      <c r="B135">
-        <v>3.59</v>
       </c>
       <c r="C135">
         <v>3.35</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
+        <v>3.75</v>
+      </c>
+      <c r="B136">
         <v>201506</v>
-      </c>
-      <c r="B136">
-        <v>3.75</v>
       </c>
       <c r="C136">
         <v>3.59</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
+        <v>3.71</v>
+      </c>
+      <c r="B137">
         <v>201507</v>
-      </c>
-      <c r="B137">
-        <v>3.71</v>
       </c>
       <c r="C137">
         <v>3.75</v>
@@ -3479,10 +3479,10 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
+        <v>3.72</v>
+      </c>
+      <c r="B138">
         <v>201508</v>
-      </c>
-      <c r="B138">
-        <v>3.72</v>
       </c>
       <c r="C138">
         <v>3.71</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
+        <v>3.73</v>
+      </c>
+      <c r="B139">
         <v>201509</v>
-      </c>
-      <c r="B139">
-        <v>3.73</v>
       </c>
       <c r="C139">
         <v>3.72</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
+        <v>3.56</v>
+      </c>
+      <c r="B140">
         <v>201510</v>
-      </c>
-      <c r="B140">
-        <v>3.56</v>
       </c>
       <c r="C140">
         <v>3.73</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
+        <v>3.48</v>
+      </c>
+      <c r="B141">
         <v>201511</v>
-      </c>
-      <c r="B141">
-        <v>3.48</v>
       </c>
       <c r="C141">
         <v>3.56</v>
@@ -3571,10 +3571,10 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
+        <v>3.61</v>
+      </c>
+      <c r="B142">
         <v>201512</v>
-      </c>
-      <c r="B142">
-        <v>3.61</v>
       </c>
       <c r="C142">
         <v>3.48</v>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
+        <v>3.23</v>
+      </c>
+      <c r="B143">
         <v>201601</v>
-      </c>
-      <c r="B143">
-        <v>3.23</v>
       </c>
       <c r="C143">
         <v>3.61</v>
@@ -3617,10 +3617,10 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
+        <v>3.22</v>
+      </c>
+      <c r="B144">
         <v>201602</v>
-      </c>
-      <c r="B144">
-        <v>3.22</v>
       </c>
       <c r="C144">
         <v>3.23</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
+        <v>3.22</v>
+      </c>
+      <c r="B145">
         <v>201603</v>
-      </c>
-      <c r="B145">
-        <v>3.22</v>
       </c>
       <c r="C145">
         <v>3.22</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
+        <v>3.35</v>
+      </c>
+      <c r="B146">
         <v>201604</v>
-      </c>
-      <c r="B146">
-        <v>3.35</v>
       </c>
       <c r="C146">
         <v>3.22</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
+        <v>3.36</v>
+      </c>
+      <c r="B147">
         <v>201605</v>
-      </c>
-      <c r="B147">
-        <v>3.36</v>
       </c>
       <c r="C147">
         <v>3.35</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
+        <v>3.46</v>
+      </c>
+      <c r="B148">
         <v>201606</v>
-      </c>
-      <c r="B148">
-        <v>3.46</v>
       </c>
       <c r="C148">
         <v>3.36</v>
@@ -3732,10 +3732,10 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
+        <v>3.33</v>
+      </c>
+      <c r="B149">
         <v>201607</v>
-      </c>
-      <c r="B149">
-        <v>3.33</v>
       </c>
       <c r="C149">
         <v>3.46</v>
@@ -3755,10 +3755,10 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
+        <v>3.17</v>
+      </c>
+      <c r="B150">
         <v>201608</v>
-      </c>
-      <c r="B150">
-        <v>3.17</v>
       </c>
       <c r="C150">
         <v>3.33</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
+        <v>3.14</v>
+      </c>
+      <c r="B151">
         <v>201609</v>
-      </c>
-      <c r="B151">
-        <v>3.14</v>
       </c>
       <c r="C151">
         <v>3.17</v>
@@ -3801,10 +3801,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
+        <v>3.1</v>
+      </c>
+      <c r="B152">
         <v>201610</v>
-      </c>
-      <c r="B152">
-        <v>3.1</v>
       </c>
       <c r="C152">
         <v>3.14</v>
@@ -3824,10 +3824,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
+        <v>2.96</v>
+      </c>
+      <c r="B153">
         <v>201611</v>
-      </c>
-      <c r="B153">
-        <v>2.96</v>
       </c>
       <c r="C153">
         <v>3.1</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
+        <v>2.9</v>
+      </c>
+      <c r="B154">
         <v>201612</v>
-      </c>
-      <c r="B154">
-        <v>2.9</v>
       </c>
       <c r="C154">
         <v>2.96</v>
@@ -3870,10 +3870,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
+        <v>3.3</v>
+      </c>
+      <c r="B155">
         <v>201701</v>
-      </c>
-      <c r="B155">
-        <v>3.3</v>
       </c>
       <c r="C155">
         <v>2.9</v>
@@ -3893,10 +3893,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
+        <v>3.01</v>
+      </c>
+      <c r="B156">
         <v>201702</v>
-      </c>
-      <c r="B156">
-        <v>3.01</v>
       </c>
       <c r="C156">
         <v>3.3</v>
@@ -3916,10 +3916,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
+        <v>2.99</v>
+      </c>
+      <c r="B157">
         <v>201703</v>
-      </c>
-      <c r="B157">
-        <v>2.99</v>
       </c>
       <c r="C157">
         <v>3.01</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
+        <v>3.39</v>
+      </c>
+      <c r="B158">
         <v>201704</v>
-      </c>
-      <c r="B158">
-        <v>3.39</v>
       </c>
       <c r="C158">
         <v>2.99</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
+        <v>3.2</v>
+      </c>
+      <c r="B159">
         <v>201705</v>
-      </c>
-      <c r="B159">
-        <v>3.2</v>
       </c>
       <c r="C159">
         <v>3.39</v>
@@ -3985,10 +3985,10 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
+        <v>3.26</v>
+      </c>
+      <c r="B160">
         <v>201706</v>
-      </c>
-      <c r="B160">
-        <v>3.26</v>
       </c>
       <c r="C160">
         <v>3.2</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
+        <v>3.54</v>
+      </c>
+      <c r="B161">
         <v>201707</v>
-      </c>
-      <c r="B161">
-        <v>3.54</v>
       </c>
       <c r="C161">
         <v>3.26</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
+        <v>3.42</v>
+      </c>
+      <c r="B162">
         <v>201708</v>
-      </c>
-      <c r="B162">
-        <v>3.42</v>
       </c>
       <c r="C162">
         <v>3.54</v>
@@ -4054,10 +4054,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
+        <v>3.4</v>
+      </c>
+      <c r="B163">
         <v>201709</v>
-      </c>
-      <c r="B163">
-        <v>3.4</v>
       </c>
       <c r="C163">
         <v>3.42</v>
@@ -4077,10 +4077,10 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
+        <v>3.31</v>
+      </c>
+      <c r="B164">
         <v>201710</v>
-      </c>
-      <c r="B164">
-        <v>3.31</v>
       </c>
       <c r="C164">
         <v>3.4</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
+        <v>3.4</v>
+      </c>
+      <c r="B165">
         <v>201711</v>
-      </c>
-      <c r="B165">
-        <v>3.4</v>
       </c>
       <c r="C165">
         <v>3.31</v>
@@ -4123,10 +4123,10 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
+        <v>3.45</v>
+      </c>
+      <c r="B166">
         <v>201712</v>
-      </c>
-      <c r="B166">
-        <v>3.45</v>
       </c>
       <c r="C166">
         <v>3.4</v>
@@ -4146,10 +4146,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
+        <v>3.74</v>
+      </c>
+      <c r="B167">
         <v>201801</v>
-      </c>
-      <c r="B167">
-        <v>3.74</v>
       </c>
       <c r="C167">
         <v>3.45</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
+        <v>3.66</v>
+      </c>
+      <c r="B168">
         <v>201802</v>
-      </c>
-      <c r="B168">
-        <v>3.66</v>
       </c>
       <c r="C168">
         <v>3.74</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
+        <v>3.55</v>
+      </c>
+      <c r="B169">
         <v>201803</v>
-      </c>
-      <c r="B169">
-        <v>3.55</v>
       </c>
       <c r="C169">
         <v>3.66</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
+        <v>3.2</v>
+      </c>
+      <c r="B170">
         <v>201804</v>
-      </c>
-      <c r="B170">
-        <v>3.2</v>
       </c>
       <c r="C170">
         <v>3.55</v>
@@ -4238,10 +4238,10 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
+        <v>3.39</v>
+      </c>
+      <c r="B171">
         <v>201805</v>
-      </c>
-      <c r="B171">
-        <v>3.39</v>
       </c>
       <c r="C171">
         <v>3.2</v>
@@ -4261,10 +4261,10 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
+        <v>3.47</v>
+      </c>
+      <c r="B172">
         <v>201806</v>
-      </c>
-      <c r="B172">
-        <v>3.47</v>
       </c>
       <c r="C172">
         <v>3.39</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
+        <v>3.45</v>
+      </c>
+      <c r="B173">
         <v>201807</v>
-      </c>
-      <c r="B173">
-        <v>3.45</v>
       </c>
       <c r="C173">
         <v>3.47</v>

--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841840_GBR_all_unit_value.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841840_GBR_all_unit_value.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>TUR_GBR_841840_UV</t>
   </si>
@@ -31,7 +32,19 @@
     <t>TUR_GBR_841840_UV-3</t>
   </si>
   <si>
+    <t>TUR_GBR_841840_UV-4</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841840_UV-5</t>
+  </si>
+  <si>
     <t>TUR_GBR_841840_UV-6</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841840_UV-7</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841840_UV-8</t>
   </si>
   <si>
     <t>TUR_GBR_841840_UV-12</t>
@@ -41,26 +54,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,35 +84,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -391,14 +391,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,3892 +426,5944 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="n">
         <v>3.72</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>200404</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="n">
         <v>3.8</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>200405</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="n">
         <v>3.89</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>200406</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>3.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="n">
         <v>3.85</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>200407</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>3.89</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="n">
         <v>3.72</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>200408</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3.85</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>3.89</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="F6" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="n">
         <v>3.64</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>200409</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>3.72</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>3.85</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>3.89</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="F7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="n">
         <v>4.25</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>200410</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>3.64</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>3.72</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>3.85</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="n">
         <v>4.17</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>200411</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>4.25</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>3.64</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>3.72</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="I9" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="n">
         <v>4.55</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>200412</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>4.17</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>4.25</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>3.64</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.89</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="I10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K10" t="s"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="n">
         <v>3.86</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>200501</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>4.55</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>4.17</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>4.25</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="I11" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K11" t="s"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="n">
         <v>4.2</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>200502</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>3.86</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>4.55</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>4.17</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
+      <c r="I12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K12" t="s"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="n">
         <v>4.52</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>200503</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>4.2</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>3.86</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>4.55</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="I13" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K13" t="s"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="n">
         <v>5.13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>200504</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>4.52</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>4.2</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>3.86</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.25</v>
       </c>
-      <c r="G14">
+      <c r="I14" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="K14" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="n">
         <v>4.66</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>200505</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>5.13</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>4.52</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>4.2</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H15" t="n">
         <v>4.17</v>
       </c>
-      <c r="G15">
+      <c r="I15" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
+    <row r="16" spans="1:11">
+      <c r="A16" t="n">
         <v>4.43</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>200506</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>4.66</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>5.13</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>4.52</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="H16" t="n">
         <v>4.55</v>
       </c>
-      <c r="G16">
+      <c r="I16" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.89</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
+    <row r="17" spans="1:11">
+      <c r="A17" t="n">
         <v>4.64</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>200507</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>4.43</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>4.66</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>5.13</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.86</v>
       </c>
-      <c r="G17">
+      <c r="I17" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.85</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
+    <row r="18" spans="1:11">
+      <c r="A18" t="n">
         <v>4.26</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>200508</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>4.64</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>4.43</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>4.66</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.2</v>
       </c>
-      <c r="G18">
+      <c r="I18" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.72</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
+    <row r="19" spans="1:11">
+      <c r="A19" t="n">
         <v>4.44</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>200509</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>4.26</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>4.64</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>4.43</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="H19" t="n">
         <v>4.52</v>
       </c>
-      <c r="G19">
+      <c r="I19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.64</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
+    <row r="20" spans="1:11">
+      <c r="A20" t="n">
         <v>4.33</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>200510</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>4.44</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>4.26</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>4.64</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.13</v>
       </c>
-      <c r="G20">
+      <c r="I20" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.25</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
+    <row r="21" spans="1:11">
+      <c r="A21" t="n">
         <v>4.54</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>200511</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>4.33</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>4.44</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>4.26</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.66</v>
       </c>
-      <c r="G21">
+      <c r="I21" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.17</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
+    <row r="22" spans="1:11">
+      <c r="A22" t="n">
         <v>4.03</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>200512</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>4.54</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>4.33</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>4.44</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.43</v>
       </c>
-      <c r="G22">
+      <c r="I22" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.55</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
+    <row r="23" spans="1:11">
+      <c r="A23" t="n">
         <v>3.98</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>200601</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>4.03</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>4.54</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>4.33</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="H23" t="n">
         <v>4.64</v>
       </c>
-      <c r="G23">
+      <c r="I23" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.86</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
+    <row r="24" spans="1:11">
+      <c r="A24" t="n">
         <v>4.11</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>200602</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>3.98</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>4.03</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>4.54</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H24" t="n">
         <v>4.26</v>
       </c>
-      <c r="G24">
+      <c r="I24" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K24" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
+    <row r="25" spans="1:11">
+      <c r="A25" t="n">
         <v>4.6</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>200603</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>4.11</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>3.98</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>4.03</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H25" t="n">
         <v>4.44</v>
       </c>
-      <c r="G25">
+      <c r="I25" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.52</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
+    <row r="26" spans="1:11">
+      <c r="A26" t="n">
         <v>4.1</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>200604</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>4.6</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>4.11</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>3.98</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="H26" t="n">
         <v>4.33</v>
       </c>
-      <c r="G26">
+      <c r="I26" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K26" t="n">
         <v>5.13</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
+    <row r="27" spans="1:11">
+      <c r="A27" t="n">
         <v>3.82</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>200605</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>4.1</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>4.6</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>4.11</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="H27" t="n">
         <v>4.54</v>
       </c>
-      <c r="G27">
+      <c r="I27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.66</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
+    <row r="28" spans="1:11">
+      <c r="A28" t="n">
         <v>4.33</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>200606</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>3.82</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>4.1</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>4.6</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H28" t="n">
         <v>4.03</v>
       </c>
-      <c r="G28">
+      <c r="I28" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.43</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
+    <row r="29" spans="1:11">
+      <c r="A29" t="n">
         <v>4.68</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>200607</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>4.33</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>3.82</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>4.1</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.98</v>
       </c>
-      <c r="G29">
+      <c r="I29" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K29" t="n">
         <v>4.64</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
+    <row r="30" spans="1:11">
+      <c r="A30" t="n">
         <v>4.3</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>200608</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>4.68</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>4.33</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>3.82</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H30" t="n">
         <v>4.11</v>
       </c>
-      <c r="G30">
+      <c r="I30" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K30" t="n">
         <v>4.26</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
+    <row r="31" spans="1:11">
+      <c r="A31" t="n">
         <v>4.93</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>200609</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>4.3</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>4.68</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>4.33</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H31" t="n">
         <v>4.6</v>
       </c>
-      <c r="G31">
+      <c r="I31" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K31" t="n">
         <v>4.44</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
+    <row r="32" spans="1:11">
+      <c r="A32" t="n">
         <v>4.36</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>200610</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>4.93</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>4.3</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>4.68</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="H32" t="n">
         <v>4.1</v>
       </c>
-      <c r="G32">
+      <c r="I32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K32" t="n">
         <v>4.33</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
+    <row r="33" spans="1:11">
+      <c r="A33" t="n">
         <v>4.4</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>200611</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>4.36</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>4.93</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>4.3</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.82</v>
       </c>
-      <c r="G33">
+      <c r="I33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K33" t="n">
         <v>4.54</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
+    <row r="34" spans="1:11">
+      <c r="A34" t="n">
         <v>4.18</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>200612</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>4.4</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>4.36</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>4.93</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="H34" t="n">
         <v>4.33</v>
       </c>
-      <c r="G34">
+      <c r="I34" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K34" t="n">
         <v>4.03</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
+    <row r="35" spans="1:11">
+      <c r="A35" t="n">
         <v>4.62</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>200701</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>4.18</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>4.4</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>4.36</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H35" t="n">
         <v>4.68</v>
       </c>
-      <c r="G35">
+      <c r="I35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.98</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
+    <row r="36" spans="1:11">
+      <c r="A36" t="n">
         <v>4.14</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>200702</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>4.62</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>4.18</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>4.4</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="H36" t="n">
         <v>4.3</v>
       </c>
-      <c r="G36">
+      <c r="I36" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K36" t="n">
         <v>4.11</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
+    <row r="37" spans="1:11">
+      <c r="A37" t="n">
         <v>4.21</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>200703</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>4.14</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>4.62</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>4.18</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="H37" t="n">
         <v>4.93</v>
       </c>
-      <c r="G37">
+      <c r="I37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="K37" t="n">
         <v>4.6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
+    <row r="38" spans="1:11">
+      <c r="A38" t="n">
         <v>4.14</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>200704</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>4.21</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>4.14</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>4.62</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H38" t="n">
         <v>4.36</v>
       </c>
-      <c r="G38">
+      <c r="I38" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K38" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
+    <row r="39" spans="1:11">
+      <c r="A39" t="n">
         <v>4.19</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>200705</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>4.14</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>4.21</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>4.14</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="H39" t="n">
         <v>4.4</v>
       </c>
-      <c r="G39">
+      <c r="I39" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="K39" t="n">
         <v>3.82</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
+    <row r="40" spans="1:11">
+      <c r="A40" t="n">
         <v>4.69</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>200706</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>4.19</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>4.14</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>4.21</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="H40" t="n">
         <v>4.18</v>
       </c>
-      <c r="G40">
+      <c r="I40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="K40" t="n">
         <v>4.33</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
+    <row r="41" spans="1:11">
+      <c r="A41" t="n">
         <v>4.54</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>200707</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>4.69</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>4.19</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>4.14</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H41" t="n">
         <v>4.62</v>
       </c>
-      <c r="G41">
+      <c r="I41" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K41" t="n">
         <v>4.68</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
+    <row r="42" spans="1:11">
+      <c r="A42" t="n">
         <v>4.42</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>200708</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>4.54</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>4.69</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>4.19</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>4.14</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K42" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
+    <row r="43" spans="1:11">
+      <c r="A43" t="n">
         <v>4.59</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>200709</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>4.42</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>4.54</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>4.69</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H43" t="n">
         <v>4.21</v>
       </c>
-      <c r="G43">
+      <c r="I43" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="K43" t="n">
         <v>4.93</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
+    <row r="44" spans="1:11">
+      <c r="A44" t="n">
         <v>4.74</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>200710</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>4.59</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>4.42</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>4.54</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="H44" t="n">
         <v>4.14</v>
       </c>
-      <c r="G44">
+      <c r="I44" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K44" t="n">
         <v>4.36</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
+    <row r="45" spans="1:11">
+      <c r="A45" t="n">
         <v>5.28</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>200711</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>4.74</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>4.59</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>4.42</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="H45" t="n">
         <v>4.19</v>
       </c>
-      <c r="G45">
+      <c r="I45" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="K45" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
+    <row r="46" spans="1:11">
+      <c r="A46" t="n">
         <v>5.15</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>200712</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>5.28</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>4.74</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>4.59</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="H46" t="n">
         <v>4.69</v>
       </c>
-      <c r="G46">
+      <c r="I46" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K46" t="n">
         <v>4.18</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
+    <row r="47" spans="1:11">
+      <c r="A47" t="n">
         <v>4.64</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>200801</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>5.15</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>5.28</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>4.74</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="H47" t="n">
         <v>4.54</v>
       </c>
-      <c r="G47">
+      <c r="I47" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="K47" t="n">
         <v>4.62</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
+    <row r="48" spans="1:11">
+      <c r="A48" t="n">
         <v>4.55</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>200802</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>4.64</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>5.15</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>5.28</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="H48" t="n">
         <v>4.42</v>
       </c>
-      <c r="G48">
+      <c r="I48" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="K48" t="n">
         <v>4.14</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
+    <row r="49" spans="1:11">
+      <c r="A49" t="n">
         <v>4.45</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>200803</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>4.55</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>4.64</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>5.15</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="H49" t="n">
         <v>4.59</v>
       </c>
-      <c r="G49">
+      <c r="I49" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K49" t="n">
         <v>4.21</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
+    <row r="50" spans="1:11">
+      <c r="A50" t="n">
         <v>4.67</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>200804</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>4.45</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>4.55</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>4.64</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="H50" t="n">
         <v>4.74</v>
       </c>
-      <c r="G50">
+      <c r="I50" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K50" t="n">
         <v>4.14</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
+    <row r="51" spans="1:11">
+      <c r="A51" t="n">
         <v>4.76</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>200805</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>4.67</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>4.45</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>4.55</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H51" t="n">
         <v>5.28</v>
       </c>
-      <c r="G51">
+      <c r="I51" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="K51" t="n">
         <v>4.19</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
+    <row r="52" spans="1:11">
+      <c r="A52" t="n">
         <v>4.55</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>200806</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>4.76</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>4.67</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>4.45</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H52" t="n">
         <v>5.15</v>
       </c>
-      <c r="G52">
+      <c r="I52" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K52" t="n">
         <v>4.69</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
+    <row r="53" spans="1:11">
+      <c r="A53" t="n">
         <v>4.44</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>200807</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>4.55</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>4.76</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>4.67</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H53" t="n">
         <v>4.64</v>
       </c>
-      <c r="G53">
+      <c r="I53" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="K53" t="n">
         <v>4.54</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
+    <row r="54" spans="1:11">
+      <c r="A54" t="n">
         <v>4.56</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>200808</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>4.44</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>4.55</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>4.76</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H54" t="n">
         <v>4.55</v>
       </c>
-      <c r="G54">
+      <c r="I54" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K54" t="n">
         <v>4.42</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
+    <row r="55" spans="1:11">
+      <c r="A55" t="n">
         <v>4.29</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>200809</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>4.56</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>4.44</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>4.55</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="H55" t="n">
         <v>4.45</v>
       </c>
-      <c r="G55">
+      <c r="I55" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K55" t="n">
         <v>4.59</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
+    <row r="56" spans="1:11">
+      <c r="A56" t="n">
         <v>4.13</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>200810</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>4.29</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>4.56</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>4.44</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="H56" t="n">
         <v>4.67</v>
       </c>
-      <c r="G56">
+      <c r="I56" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="K56" t="n">
         <v>4.74</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
+    <row r="57" spans="1:11">
+      <c r="A57" t="n">
         <v>3.51</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>200811</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>4.13</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>4.29</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>4.56</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H57" t="n">
         <v>4.76</v>
       </c>
-      <c r="G57">
+      <c r="I57" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K57" t="n">
         <v>5.28</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
+    <row r="58" spans="1:11">
+      <c r="A58" t="n">
         <v>3.66</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>200812</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>3.51</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>4.13</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>4.29</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H58" t="n">
         <v>4.55</v>
       </c>
-      <c r="G58">
+      <c r="I58" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="K58" t="n">
         <v>5.15</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
+    <row r="59" spans="1:11">
+      <c r="A59" t="n">
         <v>3.56</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>200901</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>3.66</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>3.51</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>4.13</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="H59" t="n">
         <v>4.44</v>
       </c>
-      <c r="G59">
+      <c r="I59" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K59" t="n">
         <v>4.64</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
+    <row r="60" spans="1:11">
+      <c r="A60" t="n">
         <v>3.69</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>200902</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>3.56</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>3.66</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>3.51</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="H60" t="n">
         <v>4.56</v>
       </c>
-      <c r="G60">
+      <c r="I60" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J60" t="n">
         <v>4.55</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
+      <c r="K60" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="n">
         <v>3.57</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>200903</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>3.69</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>3.56</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>3.66</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="H61" t="n">
         <v>4.29</v>
       </c>
-      <c r="G61">
+      <c r="I61" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K61" t="n">
         <v>4.45</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
+    <row r="62" spans="1:11">
+      <c r="A62" t="n">
         <v>3.56</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>200904</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>3.57</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>3.69</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>3.56</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H62" t="n">
         <v>4.13</v>
       </c>
-      <c r="G62">
+      <c r="I62" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="K62" t="n">
         <v>4.67</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
+    <row r="63" spans="1:11">
+      <c r="A63" t="n">
         <v>3.68</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>200905</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>3.56</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>3.57</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>3.69</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="H63" t="n">
         <v>3.51</v>
       </c>
-      <c r="G63">
+      <c r="I63" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="K63" t="n">
         <v>4.76</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
+    <row r="64" spans="1:11">
+      <c r="A64" t="n">
         <v>3.77</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>200906</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>3.68</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>3.56</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>3.57</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="H64" t="n">
         <v>3.66</v>
       </c>
-      <c r="G64">
+      <c r="I64" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K64" t="n">
         <v>4.55</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65">
+    <row r="65" spans="1:11">
+      <c r="A65" t="n">
         <v>3.68</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>200907</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>3.77</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>3.68</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>3.56</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="H65" t="n">
         <v>3.56</v>
       </c>
-      <c r="G65">
+      <c r="I65" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K65" t="n">
         <v>4.44</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66">
+    <row r="66" spans="1:11">
+      <c r="A66" t="n">
         <v>3.9</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>200908</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>3.68</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>3.77</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>3.68</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="H66" t="n">
         <v>3.69</v>
       </c>
-      <c r="G66">
+      <c r="I66" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K66" t="n">
         <v>4.56</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
+    <row r="67" spans="1:11">
+      <c r="A67" t="n">
         <v>4.45</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>200909</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>3.9</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>3.68</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>3.77</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="H67" t="n">
         <v>3.57</v>
       </c>
-      <c r="G67">
+      <c r="I67" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K67" t="n">
         <v>4.29</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68">
+    <row r="68" spans="1:11">
+      <c r="A68" t="n">
         <v>4.29</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>200910</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>4.45</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>3.9</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>3.68</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H68" t="n">
         <v>3.56</v>
       </c>
-      <c r="G68">
+      <c r="I68" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="K68" t="n">
         <v>4.13</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69">
+    <row r="69" spans="1:11">
+      <c r="A69" t="n">
         <v>4.29</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>200911</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>4.29</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>4.45</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>3.9</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>3.68</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="K69" t="n">
         <v>3.51</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70">
+    <row r="70" spans="1:11">
+      <c r="A70" t="n">
         <v>3.76</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>200912</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>4.29</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>4.29</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>4.45</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H70" t="n">
         <v>3.77</v>
       </c>
-      <c r="G70">
+      <c r="I70" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K70" t="n">
         <v>3.66</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71">
+    <row r="71" spans="1:11">
+      <c r="A71" t="n">
         <v>4.11</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>201001</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>3.76</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>4.29</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>4.29</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.68</v>
       </c>
-      <c r="G71">
+      <c r="I71" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K71" t="n">
         <v>3.56</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72">
+    <row r="72" spans="1:11">
+      <c r="A72" t="n">
         <v>3.97</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>201002</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>4.11</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>3.76</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>4.29</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H72" t="n">
         <v>3.9</v>
       </c>
-      <c r="G72">
+      <c r="I72" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="K72" t="n">
         <v>3.69</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73">
+    <row r="73" spans="1:11">
+      <c r="A73" t="n">
         <v>4.22</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>201003</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>3.97</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>4.11</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>3.76</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="H73" t="n">
         <v>4.45</v>
       </c>
-      <c r="G73">
+      <c r="I73" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K73" t="n">
         <v>3.57</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74">
+    <row r="74" spans="1:11">
+      <c r="A74" t="n">
         <v>3.81</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>201004</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>4.22</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>3.97</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>4.11</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G74" t="n">
         <v>4.29</v>
       </c>
-      <c r="G74">
+      <c r="H74" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K74" t="n">
         <v>3.56</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75">
+    <row r="75" spans="1:11">
+      <c r="A75" t="n">
         <v>3.96</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>201005</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>3.81</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>4.22</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>3.97</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="H75" t="n">
         <v>4.29</v>
       </c>
-      <c r="G75">
+      <c r="I75" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K75" t="n">
         <v>3.68</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76">
+    <row r="76" spans="1:11">
+      <c r="A76" t="n">
         <v>3.98</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>201006</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>3.96</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>3.81</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>4.22</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="H76" t="n">
         <v>3.76</v>
       </c>
-      <c r="G76">
+      <c r="I76" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="K76" t="n">
         <v>3.77</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77">
+    <row r="77" spans="1:11">
+      <c r="A77" t="n">
         <v>4.04</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>201007</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>3.98</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>3.96</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>3.81</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="H77" t="n">
         <v>4.11</v>
       </c>
-      <c r="G77">
+      <c r="I77" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="K77" t="n">
         <v>3.68</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78">
+    <row r="78" spans="1:11">
+      <c r="A78" t="n">
         <v>4.06</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>201008</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>4.04</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>3.98</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>3.96</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="H78" t="n">
         <v>3.97</v>
       </c>
-      <c r="G78">
+      <c r="I78" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K78" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79">
+    <row r="79" spans="1:11">
+      <c r="A79" t="n">
         <v>4.49</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>201009</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>4.06</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>4.04</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>3.98</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="H79" t="n">
         <v>4.22</v>
       </c>
-      <c r="G79">
+      <c r="I79" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K79" t="n">
         <v>4.45</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80">
+    <row r="80" spans="1:11">
+      <c r="A80" t="n">
         <v>4.18</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>201010</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>4.49</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>4.06</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>4.04</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.81</v>
       </c>
-      <c r="G80">
+      <c r="I80" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="K80" t="n">
         <v>4.29</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81">
+    <row r="81" spans="1:11">
+      <c r="A81" t="n">
         <v>4.25</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>201011</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>4.18</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>4.49</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>4.06</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H81" t="n">
         <v>3.96</v>
       </c>
-      <c r="G81">
+      <c r="I81" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="K81" t="n">
         <v>4.29</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82">
+    <row r="82" spans="1:11">
+      <c r="A82" t="n">
         <v>3.89</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>201012</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>4.25</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>4.18</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>4.49</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="H82" t="n">
         <v>3.98</v>
       </c>
-      <c r="G82">
+      <c r="I82" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K82" t="n">
         <v>3.76</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83">
+    <row r="83" spans="1:11">
+      <c r="A83" t="n">
         <v>4.4</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>201101</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>3.89</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>4.25</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>4.18</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="H83" t="n">
         <v>4.04</v>
       </c>
-      <c r="G83">
+      <c r="I83" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K83" t="n">
         <v>4.11</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84">
+    <row r="84" spans="1:11">
+      <c r="A84" t="n">
         <v>4.23</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>201102</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>4.4</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>3.89</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>4.25</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="H84" t="n">
         <v>4.06</v>
       </c>
-      <c r="G84">
+      <c r="I84" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K84" t="n">
         <v>3.97</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85">
+    <row r="85" spans="1:11">
+      <c r="A85" t="n">
         <v>4.51</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>201103</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>4.23</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>4.4</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>3.89</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="H85" t="n">
         <v>4.49</v>
       </c>
-      <c r="G85">
+      <c r="I85" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K85" t="n">
         <v>4.22</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86">
+    <row r="86" spans="1:11">
+      <c r="A86" t="n">
         <v>4.54</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>201104</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>4.51</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>4.23</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>4.4</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H86" t="n">
         <v>4.18</v>
       </c>
-      <c r="G86">
+      <c r="I86" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K86" t="n">
         <v>3.81</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87">
+    <row r="87" spans="1:11">
+      <c r="A87" t="n">
         <v>4.34</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>201105</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>4.54</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>4.51</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>4.23</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.25</v>
       </c>
-      <c r="G87">
+      <c r="I87" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K87" t="n">
         <v>3.96</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88">
+    <row r="88" spans="1:11">
+      <c r="A88" t="n">
         <v>4.48</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>201106</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>4.34</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>4.54</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>4.51</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H88" t="n">
         <v>3.89</v>
       </c>
-      <c r="G88">
+      <c r="I88" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K88" t="n">
         <v>3.98</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89">
+    <row r="89" spans="1:11">
+      <c r="A89" t="n">
         <v>4.61</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>201107</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>4.48</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>4.34</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>4.54</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.4</v>
       </c>
-      <c r="G89">
+      <c r="I89" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K89" t="n">
         <v>4.04</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90">
+    <row r="90" spans="1:11">
+      <c r="A90" t="n">
         <v>4.3</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>201108</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>4.61</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>4.48</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>4.34</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="H90" t="n">
         <v>4.23</v>
       </c>
-      <c r="G90">
+      <c r="I90" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K90" t="n">
         <v>4.06</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91">
+    <row r="91" spans="1:11">
+      <c r="A91" t="n">
         <v>3.76</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>201109</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>4.3</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>4.61</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>4.48</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.51</v>
       </c>
-      <c r="G91">
+      <c r="I91" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K91" t="n">
         <v>4.49</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92">
+    <row r="92" spans="1:11">
+      <c r="A92" t="n">
         <v>3.96</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>201110</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>3.76</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>4.3</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>4.61</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.54</v>
       </c>
-      <c r="G92">
+      <c r="I92" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J92" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K92" t="n">
         <v>4.18</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93">
+    <row r="93" spans="1:11">
+      <c r="A93" t="n">
         <v>3.59</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>201111</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>3.96</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>3.76</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>4.3</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="H93" t="n">
         <v>4.34</v>
       </c>
-      <c r="G93">
+      <c r="I93" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="K93" t="n">
         <v>4.25</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94">
+    <row r="94" spans="1:11">
+      <c r="A94" t="n">
         <v>3.63</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>201112</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>3.59</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>3.96</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>3.76</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.48</v>
       </c>
-      <c r="G94">
+      <c r="I94" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K94" t="n">
         <v>3.89</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
+    <row r="95" spans="1:11">
+      <c r="A95" t="n">
         <v>4.18</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>201201</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>3.63</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>3.59</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>3.96</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H95" t="n">
         <v>4.61</v>
       </c>
-      <c r="G95">
+      <c r="I95" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K95" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96">
+    <row r="96" spans="1:11">
+      <c r="A96" t="n">
         <v>4.14</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>201202</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>4.18</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>3.63</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>3.59</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="H96" t="n">
         <v>4.3</v>
       </c>
-      <c r="G96">
+      <c r="I96" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K96" t="n">
         <v>4.23</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
+    <row r="97" spans="1:11">
+      <c r="A97" t="n">
         <v>4.28</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>201203</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>4.14</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>4.18</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>3.63</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="H97" t="n">
         <v>3.76</v>
       </c>
-      <c r="G97">
+      <c r="I97" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K97" t="n">
         <v>4.51</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98">
+    <row r="98" spans="1:11">
+      <c r="A98" t="n">
         <v>3.95</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>201204</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>4.28</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>4.14</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>4.18</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="H98" t="n">
         <v>3.96</v>
       </c>
-      <c r="G98">
+      <c r="I98" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="J98" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K98" t="n">
         <v>4.54</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99">
+    <row r="99" spans="1:11">
+      <c r="A99" t="n">
         <v>4.02</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>201205</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>3.95</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>4.28</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>4.14</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="H99" t="n">
         <v>3.59</v>
       </c>
-      <c r="G99">
+      <c r="I99" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K99" t="n">
         <v>4.34</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
+    <row r="100" spans="1:11">
+      <c r="A100" t="n">
         <v>4.12</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>201206</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>4.02</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>3.95</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>4.28</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="H100" t="n">
         <v>3.63</v>
       </c>
-      <c r="G100">
+      <c r="I100" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K100" t="n">
         <v>4.48</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
+    <row r="101" spans="1:11">
+      <c r="A101" t="n">
         <v>4.18</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>201207</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>4.12</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>4.02</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>3.95</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H101" t="n">
         <v>4.18</v>
       </c>
-      <c r="G101">
+      <c r="I101" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="K101" t="n">
         <v>4.61</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102">
+    <row r="102" spans="1:11">
+      <c r="A102" t="n">
         <v>4.3</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>201208</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>4.18</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>4.12</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>4.02</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="H102" t="n">
         <v>4.14</v>
       </c>
-      <c r="G102">
+      <c r="I102" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="K102" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
-      <c r="A103">
+    <row r="103" spans="1:11">
+      <c r="A103" t="n">
         <v>4.48</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>201209</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>4.3</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>4.18</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>4.12</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H103" t="n">
         <v>4.28</v>
       </c>
-      <c r="G103">
+      <c r="I103" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K103" t="n">
         <v>3.76</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104">
+    <row r="104" spans="1:11">
+      <c r="A104" t="n">
         <v>4.23</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>201210</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>4.48</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>4.3</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>4.18</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="H104" t="n">
         <v>3.95</v>
       </c>
-      <c r="G104">
+      <c r="I104" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K104" t="n">
         <v>3.96</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105">
+    <row r="105" spans="1:11">
+      <c r="A105" t="n">
         <v>4.34</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>201211</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>4.23</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>4.48</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>4.3</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="H105" t="n">
         <v>4.02</v>
       </c>
-      <c r="G105">
+      <c r="I105" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="K105" t="n">
         <v>3.59</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
-      <c r="A106">
+    <row r="106" spans="1:11">
+      <c r="A106" t="n">
         <v>4.11</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>201212</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>4.34</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>4.23</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>4.48</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="H106" t="n">
         <v>4.12</v>
       </c>
-      <c r="G106">
+      <c r="I106" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K106" t="n">
         <v>3.63</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
-      <c r="A107">
+    <row r="107" spans="1:11">
+      <c r="A107" t="n">
         <v>4.31</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>201301</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>4.11</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>4.34</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>4.23</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H107" t="n">
         <v>4.18</v>
       </c>
-      <c r="G107">
+      <c r="I107" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J107" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="K107" t="n">
         <v>4.18</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
-      <c r="A108">
+    <row r="108" spans="1:11">
+      <c r="A108" t="n">
         <v>4.12</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>201302</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>4.31</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>4.11</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>4.34</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="H108" t="n">
         <v>4.3</v>
       </c>
-      <c r="G108">
+      <c r="I108" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K108" t="n">
         <v>4.14</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109">
+    <row r="109" spans="1:11">
+      <c r="A109" t="n">
         <v>4.06</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>201303</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>4.12</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>4.31</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>4.11</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H109" t="n">
         <v>4.48</v>
       </c>
-      <c r="G109">
+      <c r="I109" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K109" t="n">
         <v>4.28</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
-      <c r="A110">
+    <row r="110" spans="1:11">
+      <c r="A110" t="n">
         <v>4.41</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>201304</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>4.06</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>4.12</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>4.31</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="H110" t="n">
         <v>4.23</v>
       </c>
-      <c r="G110">
+      <c r="I110" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K110" t="n">
         <v>3.95</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111">
+    <row r="111" spans="1:11">
+      <c r="A111" t="n">
         <v>4.21</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>201305</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>4.41</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>4.06</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>4.12</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="H111" t="n">
         <v>4.34</v>
       </c>
-      <c r="G111">
+      <c r="I111" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K111" t="n">
         <v>4.02</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
-      <c r="A112">
+    <row r="112" spans="1:11">
+      <c r="A112" t="n">
         <v>4.16</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>201306</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>4.21</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>4.41</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>4.06</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="H112" t="n">
         <v>4.11</v>
       </c>
-      <c r="G112">
+      <c r="I112" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K112" t="n">
         <v>4.12</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
+    <row r="113" spans="1:11">
+      <c r="A113" t="n">
         <v>4.16</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>201307</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>4.16</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>4.21</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>4.41</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="H113" t="n">
         <v>4.31</v>
       </c>
-      <c r="G113">
+      <c r="I113" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K113" t="n">
         <v>4.18</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
+    <row r="114" spans="1:11">
+      <c r="A114" t="n">
         <v>4.16</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>201308</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>4.16</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>4.16</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>4.21</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="H114" t="n">
         <v>4.12</v>
       </c>
-      <c r="G114">
+      <c r="I114" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K114" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
-      <c r="A115">
+    <row r="115" spans="1:11">
+      <c r="A115" t="n">
         <v>3.98</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>201309</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>4.16</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>4.16</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>4.16</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="H115" t="n">
         <v>4.06</v>
       </c>
-      <c r="G115">
+      <c r="I115" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J115" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="K115" t="n">
         <v>4.48</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
-      <c r="A116">
+    <row r="116" spans="1:11">
+      <c r="A116" t="n">
         <v>4.18</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>201310</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>3.98</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>4.16</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>4.16</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="H116" t="n">
         <v>4.41</v>
       </c>
-      <c r="G116">
+      <c r="I116" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K116" t="n">
         <v>4.23</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
-      <c r="A117">
+    <row r="117" spans="1:11">
+      <c r="A117" t="n">
         <v>4.18</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>201311</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>4.18</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>3.98</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>4.16</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="H117" t="n">
         <v>4.21</v>
       </c>
-      <c r="G117">
+      <c r="I117" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J117" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K117" t="n">
         <v>4.34</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
-      <c r="A118">
+    <row r="118" spans="1:11">
+      <c r="A118" t="n">
         <v>4.04</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>201312</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>4.18</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>4.18</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>3.98</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="n">
         <v>4.16</v>
       </c>
-      <c r="G118">
+      <c r="G118" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="H118" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K118" t="n">
         <v>4.11</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
-      <c r="A119">
+    <row r="119" spans="1:11">
+      <c r="A119" t="n">
         <v>4.11</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>201401</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>4.04</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>4.18</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>4.18</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G119" t="n">
         <v>4.16</v>
       </c>
-      <c r="G119">
+      <c r="H119" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="K119" t="n">
         <v>4.31</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
-      <c r="A120">
+    <row r="120" spans="1:11">
+      <c r="A120" t="n">
         <v>4.09</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>201402</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>4.11</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>4.04</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>4.18</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H120" t="n">
         <v>4.16</v>
       </c>
-      <c r="G120">
+      <c r="I120" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K120" t="n">
         <v>4.12</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
-      <c r="A121">
+    <row r="121" spans="1:11">
+      <c r="A121" t="n">
         <v>4.71</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>201403</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>4.09</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>4.11</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>4.04</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="H121" t="n">
         <v>3.98</v>
       </c>
-      <c r="G121">
+      <c r="I121" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="J121" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K121" t="n">
         <v>4.06</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
-      <c r="A122">
+    <row r="122" spans="1:11">
+      <c r="A122" t="n">
         <v>4.38</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>201404</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>4.71</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>4.09</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>4.11</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="G122" t="n">
         <v>4.18</v>
       </c>
-      <c r="G122">
+      <c r="H122" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K122" t="n">
         <v>4.41</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
-      <c r="A123">
+    <row r="123" spans="1:11">
+      <c r="A123" t="n">
         <v>4.45</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>201405</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>4.38</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>4.71</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>4.09</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="H123" t="n">
         <v>4.18</v>
       </c>
-      <c r="G123">
+      <c r="I123" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K123" t="n">
         <v>4.21</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
-      <c r="A124">
+    <row r="124" spans="1:11">
+      <c r="A124" t="n">
         <v>4.23</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>201406</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>4.45</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>4.38</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>4.71</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="H124" t="n">
         <v>4.04</v>
       </c>
-      <c r="G124">
+      <c r="I124" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K124" t="n">
         <v>4.16</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
-      <c r="A125">
+    <row r="125" spans="1:11">
+      <c r="A125" t="n">
         <v>4.43</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>201407</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>4.23</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>4.45</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>4.38</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="H125" t="n">
         <v>4.11</v>
       </c>
-      <c r="G125">
+      <c r="I125" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K125" t="n">
         <v>4.16</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
-      <c r="A126">
+    <row r="126" spans="1:11">
+      <c r="A126" t="n">
         <v>4.31</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>201408</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>4.43</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>4.23</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>4.45</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="H126" t="n">
         <v>4.09</v>
       </c>
-      <c r="G126">
+      <c r="I126" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K126" t="n">
         <v>4.16</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
-      <c r="A127">
+    <row r="127" spans="1:11">
+      <c r="A127" t="n">
         <v>4.32</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>201409</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>4.31</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>4.43</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>4.23</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="H127" t="n">
         <v>4.71</v>
       </c>
-      <c r="G127">
+      <c r="I127" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K127" t="n">
         <v>3.98</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128">
+    <row r="128" spans="1:11">
+      <c r="A128" t="n">
         <v>4.27</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>201410</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>4.32</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>4.31</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>4.43</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H128" t="n">
         <v>4.38</v>
       </c>
-      <c r="G128">
+      <c r="I128" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="J128" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K128" t="n">
         <v>4.18</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
-      <c r="A129">
+    <row r="129" spans="1:11">
+      <c r="A129" t="n">
         <v>3.98</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>201411</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>4.27</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>4.32</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>4.31</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H129" t="n">
         <v>4.45</v>
       </c>
-      <c r="G129">
+      <c r="I129" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J129" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="K129" t="n">
         <v>4.18</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
-      <c r="A130">
+    <row r="130" spans="1:11">
+      <c r="A130" t="n">
         <v>3.9</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>201412</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>3.98</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>4.27</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>4.32</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="H130" t="n">
         <v>4.23</v>
       </c>
-      <c r="G130">
+      <c r="I130" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K130" t="n">
         <v>4.04</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131">
+    <row r="131" spans="1:11">
+      <c r="A131" t="n">
         <v>3.94</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>201501</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>3.9</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>3.98</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>4.27</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="H131" t="n">
         <v>4.43</v>
       </c>
-      <c r="G131">
+      <c r="I131" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K131" t="n">
         <v>4.11</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132">
+    <row r="132" spans="1:11">
+      <c r="A132" t="n">
         <v>3.74</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>201502</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>3.94</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>3.9</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>3.98</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="H132" t="n">
         <v>4.31</v>
       </c>
-      <c r="G132">
+      <c r="I132" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K132" t="n">
         <v>4.09</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
+    <row r="133" spans="1:11">
+      <c r="A133" t="n">
         <v>3.53</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>201503</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>3.74</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>3.94</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>3.9</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="H133" t="n">
         <v>4.32</v>
       </c>
-      <c r="G133">
+      <c r="I133" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K133" t="n">
         <v>4.71</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
-      <c r="A134">
+    <row r="134" spans="1:11">
+      <c r="A134" t="n">
         <v>3.35</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>201504</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>3.53</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>3.74</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>3.94</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H134" t="n">
         <v>4.27</v>
       </c>
-      <c r="G134">
+      <c r="I134" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="K134" t="n">
         <v>4.38</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
-      <c r="A135">
+    <row r="135" spans="1:11">
+      <c r="A135" t="n">
         <v>3.59</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>201505</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>3.35</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>3.53</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>3.74</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H135" t="n">
         <v>3.98</v>
       </c>
-      <c r="G135">
+      <c r="I135" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K135" t="n">
         <v>4.45</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
-      <c r="A136">
+    <row r="136" spans="1:11">
+      <c r="A136" t="n">
         <v>3.75</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>201506</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>3.59</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>3.35</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>3.53</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="H136" t="n">
         <v>3.9</v>
       </c>
-      <c r="G136">
+      <c r="I136" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K136" t="n">
         <v>4.23</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
-      <c r="A137">
+    <row r="137" spans="1:11">
+      <c r="A137" t="n">
         <v>3.71</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>201507</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>3.75</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>3.59</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>3.35</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="H137" t="n">
         <v>3.94</v>
       </c>
-      <c r="G137">
+      <c r="I137" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K137" t="n">
         <v>4.43</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
-      <c r="A138">
+    <row r="138" spans="1:11">
+      <c r="A138" t="n">
         <v>3.72</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>201508</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>3.71</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>3.75</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>3.59</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="H138" t="n">
         <v>3.74</v>
       </c>
-      <c r="G138">
+      <c r="I138" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K138" t="n">
         <v>4.31</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
-      <c r="A139">
+    <row r="139" spans="1:11">
+      <c r="A139" t="n">
         <v>3.73</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>201509</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>3.72</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>3.71</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>3.75</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H139" t="n">
         <v>3.53</v>
       </c>
-      <c r="G139">
+      <c r="I139" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K139" t="n">
         <v>4.32</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
-      <c r="A140">
+    <row r="140" spans="1:11">
+      <c r="A140" t="n">
         <v>3.56</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>201510</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>3.73</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>3.72</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>3.71</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="H140" t="n">
         <v>3.35</v>
       </c>
-      <c r="G140">
+      <c r="I140" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="K140" t="n">
         <v>4.27</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
-      <c r="A141">
+    <row r="141" spans="1:11">
+      <c r="A141" t="n">
         <v>3.48</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>201511</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>3.56</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>3.73</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>3.72</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="G141" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H141" t="n">
         <v>3.59</v>
       </c>
-      <c r="G141">
+      <c r="I141" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K141" t="n">
         <v>3.98</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
-      <c r="A142">
+    <row r="142" spans="1:11">
+      <c r="A142" t="n">
         <v>3.61</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>201512</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>3.48</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>3.56</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>3.73</v>
       </c>
-      <c r="F142">
+      <c r="F142" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="G142" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="H142" t="n">
         <v>3.75</v>
       </c>
-      <c r="G142">
+      <c r="I142" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K142" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
-      <c r="A143">
+    <row r="143" spans="1:11">
+      <c r="A143" t="n">
         <v>3.23</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>201601</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>3.61</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>3.48</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>3.56</v>
       </c>
-      <c r="F143">
+      <c r="F143" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G143" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H143" t="n">
         <v>3.71</v>
       </c>
-      <c r="G143">
+      <c r="I143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="K143" t="n">
         <v>3.94</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
-      <c r="A144">
+    <row r="144" spans="1:11">
+      <c r="A144" t="n">
         <v>3.22</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>201602</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>3.23</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>3.61</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>3.48</v>
       </c>
-      <c r="F144">
+      <c r="F144" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="G144" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="H144" t="n">
         <v>3.72</v>
       </c>
-      <c r="G144">
+      <c r="I144" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K144" t="n">
         <v>3.74</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
-      <c r="A145">
+    <row r="145" spans="1:11">
+      <c r="A145" t="n">
         <v>3.22</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>201603</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>3.22</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>3.23</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="n">
         <v>3.61</v>
       </c>
-      <c r="F145">
+      <c r="F145" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G145" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="H145" t="n">
         <v>3.73</v>
       </c>
-      <c r="G145">
+      <c r="I145" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K145" t="n">
         <v>3.53</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
-      <c r="A146">
+    <row r="146" spans="1:11">
+      <c r="A146" t="n">
         <v>3.35</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>201604</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>3.22</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>3.22</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>3.23</v>
       </c>
-      <c r="F146">
+      <c r="F146" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G146" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H146" t="n">
         <v>3.56</v>
       </c>
-      <c r="G146">
+      <c r="I146" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K146" t="n">
         <v>3.35</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
-      <c r="A147">
+    <row r="147" spans="1:11">
+      <c r="A147" t="n">
         <v>3.36</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>201605</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>3.35</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>3.22</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="n">
         <v>3.22</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="H147" t="n">
         <v>3.48</v>
       </c>
-      <c r="G147">
+      <c r="I147" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K147" t="n">
         <v>3.59</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
-      <c r="A148">
+    <row r="148" spans="1:11">
+      <c r="A148" t="n">
         <v>3.46</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>201606</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>3.36</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>3.35</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>3.22</v>
       </c>
-      <c r="F148">
+      <c r="F148" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G148" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H148" t="n">
         <v>3.61</v>
       </c>
-      <c r="G148">
+      <c r="I148" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K148" t="n">
         <v>3.75</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149">
+    <row r="149" spans="1:11">
+      <c r="A149" t="n">
         <v>3.33</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>201607</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>3.46</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>3.36</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>3.35</v>
       </c>
-      <c r="F149">
+      <c r="F149" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G149" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H149" t="n">
         <v>3.23</v>
       </c>
-      <c r="G149">
+      <c r="I149" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K149" t="n">
         <v>3.71</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
-      <c r="A150">
+    <row r="150" spans="1:11">
+      <c r="A150" t="n">
         <v>3.17</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>201608</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>3.33</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>3.46</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>3.36</v>
       </c>
-      <c r="F150">
+      <c r="F150" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G150" t="n">
         <v>3.22</v>
       </c>
-      <c r="G150">
+      <c r="H150" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="K150" t="n">
         <v>3.72</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151">
+    <row r="151" spans="1:11">
+      <c r="A151" t="n">
         <v>3.14</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>201609</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>3.17</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>3.33</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>3.46</v>
       </c>
-      <c r="F151">
+      <c r="F151" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="G151" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H151" t="n">
         <v>3.22</v>
       </c>
-      <c r="G151">
+      <c r="I151" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K151" t="n">
         <v>3.73</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
-      <c r="A152">
+    <row r="152" spans="1:11">
+      <c r="A152" t="n">
         <v>3.1</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>201610</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>3.14</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>3.17</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>3.33</v>
       </c>
-      <c r="F152">
+      <c r="F152" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="G152" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H152" t="n">
         <v>3.35</v>
       </c>
-      <c r="G152">
+      <c r="I152" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K152" t="n">
         <v>3.56</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
-      <c r="A153">
+    <row r="153" spans="1:11">
+      <c r="A153" t="n">
         <v>2.96</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>201611</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>3.1</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>3.14</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>3.17</v>
       </c>
-      <c r="F153">
+      <c r="F153" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G153" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="H153" t="n">
         <v>3.36</v>
       </c>
-      <c r="G153">
+      <c r="I153" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K153" t="n">
         <v>3.48</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
-      <c r="A154">
+    <row r="154" spans="1:11">
+      <c r="A154" t="n">
         <v>2.9</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>201612</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>2.96</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>3.1</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="n">
         <v>3.14</v>
       </c>
-      <c r="F154">
+      <c r="F154" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G154" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H154" t="n">
         <v>3.46</v>
       </c>
-      <c r="G154">
+      <c r="I154" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J154" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K154" t="n">
         <v>3.61</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
-      <c r="A155">
+    <row r="155" spans="1:11">
+      <c r="A155" t="n">
         <v>3.3</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>201701</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>2.9</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>2.96</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>3.1</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G155" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.33</v>
       </c>
-      <c r="G155">
+      <c r="I155" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K155" t="n">
         <v>3.23</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156">
+    <row r="156" spans="1:11">
+      <c r="A156" t="n">
         <v>3.01</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>201702</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>3.3</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>2.9</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="n">
         <v>2.96</v>
       </c>
-      <c r="F156">
+      <c r="F156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H156" t="n">
         <v>3.17</v>
       </c>
-      <c r="G156">
+      <c r="I156" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K156" t="n">
         <v>3.22</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157">
+    <row r="157" spans="1:11">
+      <c r="A157" t="n">
         <v>2.99</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>201703</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>3.01</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>3.3</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>2.9</v>
       </c>
-      <c r="F157">
+      <c r="F157" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G157" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H157" t="n">
         <v>3.14</v>
       </c>
-      <c r="G157">
+      <c r="I157" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K157" t="n">
         <v>3.22</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158">
+    <row r="158" spans="1:11">
+      <c r="A158" t="n">
         <v>3.39</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>201704</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>2.99</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>3.01</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>3.3</v>
       </c>
-      <c r="F158">
+      <c r="F158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H158" t="n">
         <v>3.1</v>
       </c>
-      <c r="G158">
+      <c r="I158" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K158" t="n">
         <v>3.35</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159">
+    <row r="159" spans="1:11">
+      <c r="A159" t="n">
         <v>3.2</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>201705</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>3.39</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>2.99</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="n">
         <v>3.01</v>
       </c>
-      <c r="F159">
+      <c r="F159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H159" t="n">
         <v>2.96</v>
       </c>
-      <c r="G159">
+      <c r="I159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K159" t="n">
         <v>3.36</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160">
+    <row r="160" spans="1:11">
+      <c r="A160" t="n">
         <v>3.26</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>201706</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>3.2</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>3.39</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>2.99</v>
       </c>
-      <c r="F160">
+      <c r="F160" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="G160" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H160" t="n">
         <v>2.9</v>
       </c>
-      <c r="G160">
+      <c r="I160" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K160" t="n">
         <v>3.46</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161">
+    <row r="161" spans="1:11">
+      <c r="A161" t="n">
         <v>3.54</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>201707</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>3.26</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>3.2</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="n">
         <v>3.39</v>
       </c>
-      <c r="F161">
+      <c r="F161" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="H161" t="n">
         <v>3.3</v>
       </c>
-      <c r="G161">
+      <c r="I161" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K161" t="n">
         <v>3.33</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
-      <c r="A162">
+    <row r="162" spans="1:11">
+      <c r="A162" t="n">
         <v>3.42</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>201708</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>3.54</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>3.26</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>3.2</v>
       </c>
-      <c r="F162">
+      <c r="F162" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="H162" t="n">
         <v>3.01</v>
       </c>
-      <c r="G162">
+      <c r="I162" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K162" t="n">
         <v>3.17</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163">
+    <row r="163" spans="1:11">
+      <c r="A163" t="n">
         <v>3.4</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>201709</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>3.42</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>3.54</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>3.26</v>
       </c>
-      <c r="F163">
+      <c r="F163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G163" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H163" t="n">
         <v>2.99</v>
       </c>
-      <c r="G163">
+      <c r="I163" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K163" t="n">
         <v>3.14</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="A164">
+    <row r="164" spans="1:11">
+      <c r="A164" t="n">
         <v>3.31</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>201710</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>3.4</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>3.42</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="n">
         <v>3.54</v>
       </c>
-      <c r="F164">
+      <c r="F164" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H164" t="n">
         <v>3.39</v>
       </c>
-      <c r="G164">
+      <c r="I164" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K164" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
-      <c r="A165">
+    <row r="165" spans="1:11">
+      <c r="A165" t="n">
         <v>3.4</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>201711</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>3.31</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>3.4</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>3.42</v>
       </c>
-      <c r="F165">
+      <c r="F165" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H165" t="n">
         <v>3.2</v>
       </c>
-      <c r="G165">
+      <c r="I165" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K165" t="n">
         <v>2.96</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
-      <c r="A166">
+    <row r="166" spans="1:11">
+      <c r="A166" t="n">
         <v>3.45</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>201712</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>3.4</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>3.31</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="n">
         <v>3.4</v>
       </c>
-      <c r="F166">
+      <c r="F166" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="G166" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H166" t="n">
         <v>3.26</v>
       </c>
-      <c r="G166">
+      <c r="I166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K166" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167">
+    <row r="167" spans="1:11">
+      <c r="A167" t="n">
         <v>3.74</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>201801</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>3.45</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>3.4</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="n">
         <v>3.31</v>
       </c>
-      <c r="F167">
+      <c r="F167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G167" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H167" t="n">
         <v>3.54</v>
       </c>
-      <c r="G167">
+      <c r="I167" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K167" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
-      <c r="A168">
+    <row r="168" spans="1:11">
+      <c r="A168" t="n">
         <v>3.66</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>201802</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>3.74</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>3.45</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="n">
         <v>3.4</v>
       </c>
-      <c r="F168">
+      <c r="F168" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H168" t="n">
         <v>3.42</v>
       </c>
-      <c r="G168">
+      <c r="I168" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J168" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K168" t="n">
         <v>3.01</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
-      <c r="A169">
+    <row r="169" spans="1:11">
+      <c r="A169" t="n">
         <v>3.55</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>201803</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>3.66</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>3.74</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="n">
         <v>3.45</v>
       </c>
-      <c r="F169">
+      <c r="F169" t="n">
         <v>3.4</v>
       </c>
-      <c r="G169">
+      <c r="G169" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K169" t="n">
         <v>2.99</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
-      <c r="A170">
+    <row r="170" spans="1:11">
+      <c r="A170" t="n">
         <v>3.2</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>201804</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>3.55</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>3.66</v>
       </c>
-      <c r="E170">
+      <c r="E170" t="n">
         <v>3.74</v>
       </c>
-      <c r="F170">
+      <c r="F170" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H170" t="n">
         <v>3.31</v>
       </c>
-      <c r="G170">
+      <c r="I170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K170" t="n">
         <v>3.39</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171">
+    <row r="171" spans="1:11">
+      <c r="A171" t="n">
         <v>3.39</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>201805</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>3.2</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>3.55</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="n">
         <v>3.66</v>
       </c>
-      <c r="F171">
+      <c r="F171" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H171" t="n">
         <v>3.4</v>
       </c>
-      <c r="G171">
+      <c r="I171" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K171" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
-      <c r="A172">
+    <row r="172" spans="1:11">
+      <c r="A172" t="n">
         <v>3.47</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>201806</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>3.39</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>3.2</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="n">
         <v>3.55</v>
       </c>
-      <c r="F172">
+      <c r="F172" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="G172" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="H172" t="n">
         <v>3.45</v>
       </c>
-      <c r="G172">
+      <c r="I172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J172" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K172" t="n">
         <v>3.26</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
-      <c r="A173">
+    <row r="173" spans="1:11">
+      <c r="A173" t="n">
         <v>3.45</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>201807</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>3.47</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>3.39</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="n">
         <v>3.2</v>
       </c>
-      <c r="F173">
+      <c r="F173" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G173" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="H173" t="n">
         <v>3.74</v>
       </c>
-      <c r="G173">
+      <c r="I173" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K173" t="n">
         <v>3.54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>